--- a/Databehandling.xlsx
+++ b/Databehandling.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CBBED4-F0DF-4FA2-A5A2-9622B8A5D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>aeaewf</t>
+  </si>
+  <si>
+    <t>eweafw</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +347,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Databehandling.xlsx
+++ b/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CBBED4-F0DF-4FA2-A5A2-9622B8A5D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3900F43C-DB70-4E09-8717-A1300206B68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>aeaewf</t>
   </si>
   <si>
     <t>eweafw</t>
+  </si>
+  <si>
+    <t>sdfsdfyshdfsdf</t>
   </si>
 </sst>
 </file>
@@ -348,22 +351,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Databehandling.xlsx
+++ b/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3900F43C-DB70-4E09-8717-A1300206B68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5BAF91-0740-4D9C-ACC7-4CD5E8E22161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
-    <t>aeaewf</t>
+    <t>Setup 1.1</t>
   </si>
   <si>
-    <t>eweafw</t>
+    <t># batterier</t>
   </si>
   <si>
-    <t>sdfsdfyshdfsdf</t>
+    <t>Vægtstangsforhold:</t>
+  </si>
+  <si>
+    <t>Volt</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>Omdr/min</t>
+  </si>
+  <si>
+    <t>Ampere</t>
+  </si>
+  <si>
+    <t>Setup 1.2</t>
+  </si>
+  <si>
+    <t>Setup 2.1</t>
+  </si>
+  <si>
+    <t>Setup 2.2</t>
   </si>
 </sst>
 </file>
@@ -49,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,26 +379,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Databehandling.xlsx
+++ b/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5BAF91-0740-4D9C-ACC7-4CD5E8E22161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F325525F-A7FC-4E6C-A3F3-5E17BBBDA0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -385,19 +385,20 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -455,7 +456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -469,7 +470,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -483,7 +484,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -497,7 +498,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -511,7 +512,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -525,7 +526,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -539,7 +540,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -553,7 +554,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -567,7 +568,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -581,7 +582,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -595,7 +596,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -609,7 +610,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -623,7 +624,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -637,7 +638,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -651,7 +652,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -665,7 +666,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -679,7 +680,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -693,7 +694,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -707,7 +708,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -727,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,7 +766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -779,7 +780,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -793,7 +794,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -807,7 +808,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -821,7 +822,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -835,7 +836,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -849,7 +850,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -863,7 +864,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -877,7 +878,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -891,7 +892,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -905,7 +906,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -919,7 +920,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -933,7 +934,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -947,7 +948,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -961,7 +962,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -975,7 +976,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -989,7 +990,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1003,7 +1004,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/Databehandling.xlsx
+++ b/Databehandling.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F325525F-A7FC-4E6C-A3F3-5E17BBBDA0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E6F9B-DA97-4B28-9E26-4017A216C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Målinger" sheetId="1" r:id="rId1"/>
+    <sheet name="Beregninger" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Setup 1.1</t>
   </si>
@@ -55,6 +56,9 @@
   </si>
   <si>
     <t>Setup 2.2</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -381,24 +385,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -456,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -470,7 +474,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -484,7 +488,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -498,7 +502,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -512,7 +516,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -526,7 +530,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -540,7 +544,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -554,7 +558,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -568,7 +572,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -582,7 +586,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -596,7 +600,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -610,7 +614,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -624,7 +628,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -638,7 +642,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -652,7 +656,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -666,7 +670,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -680,7 +684,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -694,7 +698,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -708,7 +712,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -728,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -780,7 +784,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -794,7 +798,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -808,7 +812,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -822,7 +826,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -836,7 +840,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -850,7 +854,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -864,7 +868,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -878,7 +882,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -892,7 +896,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -906,7 +910,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -920,7 +924,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -934,7 +938,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -948,7 +952,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -962,7 +966,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -976,7 +980,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -990,7 +994,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1004,7 +1008,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1021,4 +1025,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB13F64-D884-4A04-B018-0BE86E73A64E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Databehandling.xlsx
+++ b/Databehandling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E6F9B-DA97-4B28-9E26-4017A216C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519E300-6535-48C2-9A6C-549586DCC0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Målinger" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Setup 1.1</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Setup 2.2</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1031,16 +1028,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB13F64-D884-4A04-B018-0BE86E73A64E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Databehandling.xlsx
+++ b/Databehandling.xlsx
@@ -5,28 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E6F9B-DA97-4B28-9E26-4017A216C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F92194-3DBF-4770-A02F-D09CD2B931BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Målinger" sheetId="1" r:id="rId1"/>
     <sheet name="Beregninger" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Setup 1.1</t>
   </si>
@@ -59,6 +70,27 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>vægt bagerst</t>
+  </si>
+  <si>
+    <t>vægt foran</t>
+  </si>
+  <si>
+    <t>det hele</t>
+  </si>
+  <si>
+    <t>Opstilling 1</t>
+  </si>
+  <si>
+    <t>Opstilling 2</t>
+  </si>
+  <si>
+    <t>diffrence</t>
+  </si>
+  <si>
+    <t>forskel</t>
   </si>
 </sst>
 </file>
@@ -88,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,13 +128,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,26 +504,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" customWidth="1"/>
+    <col min="16" max="16" width="10.86328125" customWidth="1"/>
+    <col min="18" max="18" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -460,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -474,7 +595,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -488,7 +609,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -502,7 +623,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -516,7 +637,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -530,7 +651,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -544,7 +665,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -557,8 +678,13 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -571,8 +697,15 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -585,8 +718,16 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V11" s="5">
+        <v>454</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="7">
+        <f>V14+V11</f>
+        <v>605.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -599,8 +740,11 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V12" s="5"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -613,8 +757,15 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -627,8 +778,16 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V14" s="5">
+        <v>151.6</v>
+      </c>
+      <c r="W14" s="6"/>
+      <c r="X14" s="7">
+        <f>X11-V17</f>
+        <v>5.6000000000000227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -641,8 +800,11 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -655,8 +817,13 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -669,8 +836,13 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V17" s="5">
+        <v>600</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -683,8 +855,11 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V18" s="8"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -698,7 +873,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -711,8 +886,33 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="V21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="7" t="str">
+        <f>X10</f>
+        <v>diffrence</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="V22" s="5">
+        <v>303.5</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="7">
+        <f>V22+V25</f>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -731,8 +931,11 @@
       <c r="M23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V23" s="5"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +972,16 @@
       <c r="R24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="6"/>
+      <c r="X24" s="7" t="str">
+        <f>X13</f>
+        <v>forskel</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -783,8 +994,16 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V25" s="5">
+        <v>311.5</v>
+      </c>
+      <c r="W25" s="6"/>
+      <c r="X25" s="7">
+        <f>X22-V28</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -797,8 +1016,11 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V26" s="5"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="7"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -811,8 +1033,13 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -825,8 +1052,13 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V28" s="8">
+        <v>600</v>
+      </c>
+      <c r="W28" s="9"/>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -840,7 +1072,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -854,7 +1086,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -868,7 +1100,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -882,7 +1114,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -896,7 +1128,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -910,7 +1142,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -924,7 +1156,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -938,7 +1170,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -952,7 +1184,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -966,7 +1198,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -980,7 +1212,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -994,7 +1226,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1008,7 +1240,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1031,11 +1263,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB13F64-D884-4A04-B018-0BE86E73A64E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>

--- a/Databehandling.xlsx
+++ b/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519E300-6535-48C2-9A6C-549586DCC0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C8C246-1185-4AD1-9CB1-69B314E140A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>Setup 1.1</t>
   </si>
@@ -56,6 +56,90 @@
   </si>
   <si>
     <t>Setup 2.2</t>
+  </si>
+  <si>
+    <t>gsdtrhy</t>
+  </si>
+  <si>
+    <t>kyfy</t>
+  </si>
+  <si>
+    <t>kcty</t>
+  </si>
+  <si>
+    <t>hui</t>
+  </si>
+  <si>
+    <t>ighuæ</t>
+  </si>
+  <si>
+    <t>æihuæ</t>
+  </si>
+  <si>
+    <t>ghn</t>
+  </si>
+  <si>
+    <t>hjm,g</t>
+  </si>
+  <si>
+    <t>,hj</t>
+  </si>
+  <si>
+    <t>j,hg</t>
+  </si>
+  <si>
+    <t>,jh</t>
+  </si>
+  <si>
+    <t>,ghj</t>
+  </si>
+  <si>
+    <t>jhg,</t>
+  </si>
+  <si>
+    <t>ghjk,k,</t>
+  </si>
+  <si>
+    <t>ghj,</t>
+  </si>
+  <si>
+    <t>,j</t>
+  </si>
+  <si>
+    <t>,jhg</t>
+  </si>
+  <si>
+    <t>,jgh</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>gjh,</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>,jg</t>
+  </si>
+  <si>
+    <t>,gjh</t>
+  </si>
+  <si>
+    <t>jgh</t>
+  </si>
+  <si>
+    <t>g,jg</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g,j,</t>
+  </si>
+  <si>
+    <t>gjh</t>
   </si>
 </sst>
 </file>
@@ -380,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +483,7 @@
     <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -470,8 +554,14 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -484,8 +574,23 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -498,8 +603,23 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -512,8 +632,26 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -526,8 +664,20 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -540,8 +690,23 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -554,8 +719,17 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -568,8 +742,20 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -582,8 +768,11 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -596,8 +785,17 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -610,8 +808,17 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -625,7 +832,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -639,7 +846,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1026,12 +1233,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB13F64-D884-4A04-B018-0BE86E73A64E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>